--- a/spring21_models/test_set.xlsx
+++ b/spring21_models/test_set.xlsx
@@ -22,22 +22,22 @@
     <t>value_over_replacement_player</t>
   </si>
   <si>
+    <t>poss</t>
+  </si>
+  <si>
     <t>war_total</t>
+  </si>
+  <si>
+    <t>offensive_win_shares</t>
   </si>
   <si>
     <t>war_reg_season</t>
   </si>
   <si>
-    <t>poss</t>
-  </si>
-  <si>
-    <t>offensive_win_shares</t>
+    <t>offensive_box_plus_minus</t>
   </si>
   <si>
     <t>minutes_played</t>
-  </si>
-  <si>
-    <t>offensive_box_plus_minus</t>
   </si>
   <si>
     <t>predator_offense</t>
@@ -441,1682 +441,1682 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B2">
-        <v>-0.9651021843194098</v>
+        <v>-0.587193338373497</v>
       </c>
       <c r="C2">
-        <v>-0.4846251831269178</v>
+        <v>-0.3883862285132863</v>
       </c>
       <c r="D2">
-        <v>-0.5786953222846142</v>
+        <v>-1.692184502078511</v>
       </c>
       <c r="E2">
-        <v>-0.6784859789887935</v>
+        <v>-0.4155835462195331</v>
       </c>
       <c r="F2">
-        <v>-0.3246339480668604</v>
+        <v>-0.6882313156236582</v>
       </c>
       <c r="G2">
-        <v>-0.2998135380813539</v>
+        <v>-0.4112301360641435</v>
       </c>
       <c r="H2">
-        <v>-0.416019385062097</v>
+        <v>-0.2914081968779227</v>
       </c>
       <c r="I2">
-        <v>-0.2068503957882719</v>
+        <v>-1.597960374532503</v>
       </c>
       <c r="J2">
-        <v>0.310423590112264</v>
+        <v>-0.1291428647972129</v>
       </c>
       <c r="K2">
-        <v>-0.1736371336931979</v>
+        <v>-1.059865102201448</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="B3">
-        <v>-0.4402066546174814</v>
+        <v>-0.7919805512330933</v>
       </c>
       <c r="C3">
-        <v>-0.009570694819382631</v>
+        <v>-0.6120770310114449</v>
       </c>
       <c r="D3">
-        <v>-0.8321232484972336</v>
+        <v>-0.01581662421175512</v>
       </c>
       <c r="E3">
-        <v>-0.900711485682877</v>
+        <v>-0.55668626011494</v>
       </c>
       <c r="F3">
-        <v>0.1456305865659772</v>
+        <v>0.1645897869704236</v>
       </c>
       <c r="G3">
-        <v>0.5359498645348095</v>
+        <v>-0.5817121437969537</v>
       </c>
       <c r="H3">
-        <v>0.4292335823970375</v>
+        <v>-0.1070410178566645</v>
       </c>
       <c r="I3">
-        <v>0.3583221618450714</v>
+        <v>0.2480965310016377</v>
       </c>
       <c r="J3">
-        <v>0.1460172160867954</v>
+        <v>-1.134564042628711</v>
       </c>
       <c r="K3">
-        <v>-0.1736371336931979</v>
+        <v>-0.8550203780237526</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="B4">
-        <v>0.4736565006094011</v>
+        <v>0.02456439981729958</v>
       </c>
       <c r="C4">
-        <v>0.782186785693176</v>
+        <v>-0.4629498293460059</v>
       </c>
       <c r="D4">
-        <v>0.6828012540066011</v>
+        <v>-0.4254868757970114</v>
       </c>
       <c r="E4">
-        <v>0.753817262172687</v>
+        <v>-0.4067830396683828</v>
       </c>
       <c r="F4">
-        <v>-0.09887918624164295</v>
+        <v>-0.5816286777993979</v>
       </c>
       <c r="G4">
-        <v>0.4802323043603986</v>
+        <v>-0.4005972574717588</v>
       </c>
       <c r="H4">
-        <v>0.009796732506938704</v>
+        <v>-0.153132812611979</v>
       </c>
       <c r="I4">
-        <v>0.4054198749811834</v>
+        <v>-0.3288975500959515</v>
       </c>
       <c r="J4">
-        <v>0.04219942665416041</v>
+        <v>-0.08524496936128174</v>
       </c>
       <c r="K4">
-        <v>1.406460782914903</v>
+        <v>-0.6501756538460567</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="B5">
-        <v>-0.675511344211435</v>
+        <v>-0.7320074891609617</v>
       </c>
       <c r="C5">
-        <v>-0.08874644287063847</v>
+        <v>-1.059458636007762</v>
       </c>
       <c r="D5">
-        <v>0.06746168013051031</v>
+        <v>-1.156193440379232</v>
       </c>
       <c r="E5">
-        <v>0.1694405448165947</v>
+        <v>-0.4255594208555011</v>
       </c>
       <c r="F5">
-        <v>1.461259875479706</v>
+        <v>-1.221244504744959</v>
       </c>
       <c r="G5">
-        <v>-0.7455540194766411</v>
+        <v>-0.4232831086107331</v>
       </c>
       <c r="H5">
-        <v>-0.1161938041520643</v>
+        <v>-1.904621013313931</v>
       </c>
       <c r="I5">
-        <v>-0.3481435351966077</v>
+        <v>-0.9658601171503126</v>
       </c>
       <c r="J5">
-        <v>-0.7798234433544132</v>
+        <v>-0.8321637963237256</v>
       </c>
       <c r="K5">
-        <v>-0.3711493732692104</v>
+        <v>-1.059865102201448</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="B6">
-        <v>0.0343843593571762</v>
+        <v>-0.664918878320146</v>
       </c>
       <c r="C6">
-        <v>0.0696050532318733</v>
+        <v>-0.6866406318441645</v>
       </c>
       <c r="D6">
-        <v>0.09067573615168603</v>
+        <v>-0.2182090824054933</v>
       </c>
       <c r="E6">
-        <v>0.02556742135596385</v>
+        <v>-0.5489227276523799</v>
       </c>
       <c r="F6">
-        <v>0.2157882202408909</v>
+        <v>0.4310963815310742</v>
       </c>
       <c r="G6">
-        <v>-0.8569891398254629</v>
+        <v>-0.572332149856531</v>
       </c>
       <c r="H6">
-        <v>0.4276387654773033</v>
+        <v>0.3999687244517954</v>
       </c>
       <c r="I6">
-        <v>-0.5365343877410554</v>
+        <v>0.1022272408365169</v>
       </c>
       <c r="J6">
-        <v>-0.5354277207001186</v>
+        <v>-0.2876050334735317</v>
       </c>
       <c r="K6">
-        <v>1.20894854333889</v>
+        <v>-1.367132188467992</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="B7">
-        <v>-0.5622630138630503</v>
+        <v>-0.2691937707944423</v>
       </c>
       <c r="C7">
-        <v>-0.3262736870244061</v>
+        <v>0.5063769814793481</v>
       </c>
       <c r="D7">
-        <v>-0.3885170778622848</v>
+        <v>0.9710210857397823</v>
       </c>
       <c r="E7">
-        <v>-0.3729947252751097</v>
+        <v>0.4926186430219417</v>
       </c>
       <c r="F7">
-        <v>-1.636095456762277</v>
+        <v>0.004685830234033282</v>
       </c>
       <c r="G7">
-        <v>-0.6341188991278193</v>
+        <v>0.575429294182782</v>
       </c>
       <c r="H7">
-        <v>-1.484546721284022</v>
+        <v>0.6765194929836826</v>
       </c>
       <c r="I7">
-        <v>-0.2068503957882719</v>
+        <v>1.129795351555257</v>
       </c>
       <c r="J7">
-        <v>-0.04347475896333037</v>
+        <v>0.7678599265779049</v>
       </c>
       <c r="K7">
-        <v>-0.9636860919972482</v>
+        <v>1.091004501664358</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="B8">
-        <v>-0.4825635871854269</v>
+        <v>-0.5098037106756643</v>
       </c>
       <c r="C8">
-        <v>-0.6429766792294295</v>
+        <v>-0.6866406318441645</v>
       </c>
       <c r="D8">
-        <v>-0.7698963087989154</v>
+        <v>-1.398366485183463</v>
       </c>
       <c r="E8">
-        <v>-0.8266859170559041</v>
+        <v>-0.7561080606736252</v>
       </c>
       <c r="F8">
-        <v>-0.6066537428392859</v>
+        <v>-0.9547379101843088</v>
       </c>
       <c r="G8">
-        <v>-0.6341188991278193</v>
+        <v>-0.8226559783013541</v>
       </c>
       <c r="H8">
-        <v>-0.3458474405937914</v>
+        <v>-0.1992246073672936</v>
       </c>
       <c r="I8">
-        <v>-0.913316092829951</v>
+        <v>-1.291634865185749</v>
       </c>
       <c r="J8">
-        <v>-0.4857131976625953</v>
+        <v>-0.1120667011178894</v>
       </c>
       <c r="K8">
-        <v>-0.07488101390519175</v>
+        <v>-1.059865102201448</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="B9">
-        <v>1.334634458021202</v>
+        <v>-0.7007292428614783</v>
       </c>
       <c r="C9">
-        <v>1.257241274000711</v>
+        <v>-0.3883862285132863</v>
       </c>
       <c r="D9">
-        <v>0.610548206801506</v>
+        <v>-1.335555032640579</v>
       </c>
       <c r="E9">
-        <v>0.8745742258937367</v>
+        <v>-0.6372263939900686</v>
       </c>
       <c r="F9">
-        <v>1.260511794964359</v>
+        <v>-0.2618207643266173</v>
       </c>
       <c r="G9">
-        <v>1.427430827325384</v>
+        <v>-0.6790217089147382</v>
       </c>
       <c r="H9">
-        <v>0.9571179828290629</v>
+        <v>0.4921523139624244</v>
       </c>
       <c r="I9">
-        <v>0.6409084406617431</v>
+        <v>-1.233287149119701</v>
       </c>
       <c r="J9">
-        <v>0.294052315090606</v>
+        <v>-0.002377700604028186</v>
       </c>
       <c r="K9">
-        <v>1.406460782914903</v>
+        <v>-1.367132188467992</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>2.480217479397585</v>
+        <v>1.171850515220772</v>
       </c>
       <c r="C10">
-        <v>3.157459227230852</v>
+        <v>1.252012989806544</v>
       </c>
       <c r="D10">
-        <v>3.833810943877033</v>
+        <v>0.615787426358359</v>
       </c>
       <c r="E10">
-        <v>2.408021101374127</v>
+        <v>1.078029030491486</v>
       </c>
       <c r="F10">
-        <v>1.975980732441202</v>
+        <v>0.1112884680582935</v>
       </c>
       <c r="G10">
-        <v>2.541782030813602</v>
+        <v>1.393370667301121</v>
       </c>
       <c r="H10">
-        <v>1.0241002934579</v>
+        <v>0.6765194929836826</v>
       </c>
       <c r="I10">
-        <v>3.137087236875676</v>
+        <v>1.024445308658225</v>
       </c>
       <c r="J10">
-        <v>3.294511175804863</v>
+        <v>0.4323672376806663</v>
       </c>
       <c r="K10">
-        <v>1.900241381854934</v>
+        <v>1.705538674197446</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B11">
-        <v>0.5270116982812273</v>
+        <v>-0.7128620398669362</v>
       </c>
       <c r="C11">
-        <v>0.1487808012831291</v>
+        <v>-0.9103314343423232</v>
       </c>
       <c r="D11">
-        <v>0.3857282797946576</v>
+        <v>-0.8498131329756075</v>
       </c>
       <c r="E11">
-        <v>0.5551447674196583</v>
+        <v>-0.7791633626635042</v>
       </c>
       <c r="F11">
-        <v>-0.3156037575938517</v>
+        <v>-0.6349299967115281</v>
       </c>
       <c r="G11">
-        <v>0.4245147441859877</v>
+        <v>-0.7389762223508184</v>
       </c>
       <c r="H11">
-        <v>-0.1082197195533933</v>
+        <v>-0.8906015286970116</v>
       </c>
       <c r="I11">
-        <v>-0.3952412483327196</v>
+        <v>-1.006379364418402</v>
       </c>
       <c r="J11">
-        <v>-0.5739376335178504</v>
+        <v>-0.8620534436117564</v>
       </c>
       <c r="K11">
-        <v>1.505216902702909</v>
+        <v>-0.342908567579513</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="B12">
-        <v>-1.345512355526802</v>
+        <v>-0.0766352001686573</v>
       </c>
       <c r="C12">
-        <v>-0.6429766792294295</v>
+        <v>-0.3883862285132863</v>
       </c>
       <c r="D12">
-        <v>-1.120082438450649</v>
+        <v>0.5508822587307119</v>
       </c>
       <c r="E12">
-        <v>-1.36195814043599</v>
+        <v>-0.009099913976063237</v>
       </c>
       <c r="F12">
-        <v>0.2296808209685966</v>
+        <v>-0.2618207643266173</v>
       </c>
       <c r="G12">
-        <v>-0.3555310982557648</v>
+        <v>0.07988831107472273</v>
       </c>
       <c r="H12">
-        <v>0.4069061455207584</v>
+        <v>-0.6601425549204389</v>
       </c>
       <c r="I12">
-        <v>0.3112244487089595</v>
+        <v>0.8623683195858689</v>
       </c>
       <c r="J12">
-        <v>0.838927455062728</v>
+        <v>-0.8409382248224661</v>
       </c>
       <c r="K12">
-        <v>-1.161198331573261</v>
+        <v>0.4764703291312705</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="B13">
-        <v>-0.3252683968244517</v>
+        <v>-0.06888047891826883</v>
       </c>
       <c r="C13">
-        <v>-0.3262736870244061</v>
+        <v>-0.4629498293460059</v>
       </c>
       <c r="D13">
-        <v>-0.4856509263675329</v>
+        <v>-0.7186069876638047</v>
       </c>
       <c r="E13">
-        <v>-0.5153363509686861</v>
+        <v>-0.3636750252036547</v>
       </c>
       <c r="F13">
-        <v>1.010444981865656</v>
+        <v>-0.3151220832387474</v>
       </c>
       <c r="G13">
-        <v>0.1459269433139333</v>
+        <v>-0.3862637122072435</v>
       </c>
       <c r="H13">
-        <v>1.161254548555043</v>
+        <v>0.0312343664092791</v>
       </c>
       <c r="I13">
-        <v>0.3112244487089595</v>
+        <v>-1.518542649887048</v>
       </c>
       <c r="J13">
-        <v>0.3683302748205853</v>
+        <v>-1.122557674157461</v>
       </c>
       <c r="K13">
-        <v>0.02387510588281462</v>
+        <v>-0.9574427401126006</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B14">
-        <v>0.1907296889892085</v>
+        <v>-0.6097816700324942</v>
       </c>
       <c r="C14">
-        <v>0.227956549334385</v>
+        <v>0.1335589773157504</v>
       </c>
       <c r="D14">
-        <v>0.4562417472312899</v>
+        <v>0.5334346330243551</v>
       </c>
       <c r="E14">
-        <v>0.6468461154936573</v>
+        <v>0.1588549424453384</v>
       </c>
       <c r="F14">
-        <v>-0.08220806536839612</v>
+        <v>0.6976029760917248</v>
       </c>
       <c r="G14">
-        <v>-0.1883784177325322</v>
+        <v>0.2828134025964986</v>
       </c>
       <c r="H14">
-        <v>0.218717748992121</v>
+        <v>0.4921523139624244</v>
       </c>
       <c r="I14">
-        <v>-0.06555725637993601</v>
+        <v>0.8461606206786333</v>
       </c>
       <c r="J14">
-        <v>-0.03977595533221856</v>
+        <v>0.633731819054577</v>
       </c>
       <c r="K14">
-        <v>0.5176557048228461</v>
+        <v>-0.6501756538460567</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B15">
-        <v>-0.3983281232529193</v>
+        <v>-0.1013637340639381</v>
       </c>
       <c r="C15">
-        <v>-0.6429766792294295</v>
+        <v>-0.5375134301787254</v>
       </c>
       <c r="D15">
-        <v>-0.5485425327998547</v>
+        <v>0.01209957691841567</v>
       </c>
       <c r="E15">
-        <v>-0.5633620381137927</v>
+        <v>-0.238518140364969</v>
       </c>
       <c r="F15">
-        <v>-0.6274926439308444</v>
+        <v>-0.3684234021508775</v>
       </c>
       <c r="G15">
-        <v>-0.6341188991278193</v>
+        <v>-0.2410035240019384</v>
       </c>
       <c r="H15">
-        <v>-1.401616241457842</v>
+        <v>-0.3374999916332372</v>
       </c>
       <c r="I15">
-        <v>-0.6307298140132793</v>
+        <v>-0.03553819987498619</v>
       </c>
       <c r="J15">
-        <v>0.7114462676238401</v>
+        <v>-0.2534429390815188</v>
       </c>
       <c r="K15">
-        <v>-1.161198331573261</v>
+        <v>-0.5477532917572089</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16">
-        <v>0.5717469346563918</v>
+        <v>-0.0004807134608502443</v>
       </c>
       <c r="C16">
-        <v>0.4654837934881526</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D16">
-        <v>0.4232922255789971</v>
+        <v>-0.3787272389039754</v>
       </c>
       <c r="E16">
-        <v>0.711318221400736</v>
+        <v>-0.04022604734621193</v>
       </c>
       <c r="F16">
-        <v>0.3936135095555237</v>
+        <v>0.4310963815310742</v>
       </c>
       <c r="G16">
-        <v>0.2016445034883441</v>
+        <v>-0.04726565907139969</v>
       </c>
       <c r="H16">
-        <v>0.639749415801954</v>
+        <v>0.5843359034730535</v>
       </c>
       <c r="I16">
-        <v>0.1228335961645117</v>
+        <v>-0.2705498340299031</v>
       </c>
       <c r="J16">
-        <v>0.9365185763746712</v>
+        <v>0.9517719015508087</v>
       </c>
       <c r="K16">
-        <v>0.6164118246108524</v>
+        <v>0.1692032428647267</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B17">
-        <v>-0.8226690823851037</v>
+        <v>-0.8221235866124962</v>
       </c>
       <c r="C17">
-        <v>-0.5638009311781736</v>
+        <v>-0.6866406318441645</v>
       </c>
       <c r="D17">
-        <v>-0.7183466466424681</v>
+        <v>-2.125583524624413</v>
       </c>
       <c r="E17">
-        <v>-0.8280744748168359</v>
+        <v>-0.901298483580644</v>
       </c>
       <c r="F17">
-        <v>-2.075796269794162</v>
+        <v>-0.9547379101843088</v>
       </c>
       <c r="G17">
-        <v>-0.801271579651052</v>
+        <v>-0.9581929741696279</v>
       </c>
       <c r="H17">
-        <v>-2.033163741672592</v>
+        <v>-1.628070244782044</v>
       </c>
       <c r="I17">
-        <v>0.2170290224367356</v>
+        <v>-2.126331358908385</v>
       </c>
       <c r="J17">
-        <v>0.8038851475261601</v>
+        <v>-2.8637916272159</v>
       </c>
       <c r="K17">
-        <v>-1.45746669093728</v>
+        <v>-1.367132188467992</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="B18">
-        <v>-0.4770808846086572</v>
+        <v>-0.3548862314143049</v>
       </c>
       <c r="C18">
-        <v>-0.4846251831269178</v>
+        <v>-0.5375134301787254</v>
       </c>
       <c r="D18">
-        <v>-0.8938725055819062</v>
+        <v>-0.1107317080543358</v>
       </c>
       <c r="E18">
-        <v>-0.9495979518745049</v>
+        <v>-0.7609516513976825</v>
       </c>
       <c r="F18">
-        <v>0.5200361761776454</v>
+        <v>-0.6882313156236582</v>
       </c>
       <c r="G18">
-        <v>-0.9684242601742846</v>
+        <v>-0.761080571096204</v>
       </c>
       <c r="H18">
-        <v>0.721085078708399</v>
+        <v>-0.6601425549204389</v>
       </c>
       <c r="I18">
-        <v>-0.4423389614688316</v>
+        <v>-0.8961670118491993</v>
       </c>
       <c r="J18">
-        <v>0.05381960653692152</v>
+        <v>-0.3427739327740887</v>
       </c>
       <c r="K18">
-        <v>0.5176557048228461</v>
+        <v>-0.1380638434018172</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="B19">
-        <v>-0.5852265969380716</v>
+        <v>1.295393809028603</v>
       </c>
       <c r="C19">
-        <v>0.227956549334385</v>
+        <v>1.028322187308385</v>
       </c>
       <c r="D19">
-        <v>0.2021417279391158</v>
+        <v>1.376503907155513</v>
       </c>
       <c r="E19">
-        <v>0.3296567979390239</v>
+        <v>1.421521804928175</v>
       </c>
       <c r="F19">
-        <v>0.5790797292703946</v>
+        <v>0.6976029760917248</v>
       </c>
       <c r="G19">
-        <v>0.814537665406864</v>
+        <v>1.553991053963492</v>
       </c>
       <c r="H19">
-        <v>0.920437193675176</v>
+        <v>0.3538769296964809</v>
       </c>
       <c r="I19">
-        <v>0.5938107275256311</v>
+        <v>1.679236344510546</v>
       </c>
       <c r="J19">
-        <v>0.7409738947174582</v>
+        <v>0.4935881002104366</v>
       </c>
       <c r="K19">
-        <v>-0.5686616128452231</v>
+        <v>2.422495208819381</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>348</v>
+        <v>143</v>
       </c>
       <c r="B20">
-        <v>-0.4711355679043221</v>
+        <v>-0.2380272730472202</v>
       </c>
       <c r="C20">
-        <v>-0.4846251831269178</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D20">
-        <v>0.274617939187087</v>
+        <v>0.3408128452261767</v>
       </c>
       <c r="E20">
-        <v>0.1560626295424864</v>
+        <v>-0.3014711874449176</v>
       </c>
       <c r="F20">
-        <v>-0.4003486220328564</v>
+        <v>0.271192424794684</v>
       </c>
       <c r="G20">
-        <v>-0.5226837787789975</v>
+        <v>-0.5958445359112524</v>
       </c>
       <c r="H20">
-        <v>-0.283649580724157</v>
+        <v>0.0312343664092791</v>
       </c>
       <c r="I20">
-        <v>-1.101706945374399</v>
+        <v>0.1378841784324353</v>
       </c>
       <c r="J20">
-        <v>-0.06188705512407502</v>
+        <v>-0.2302092984431837</v>
       </c>
       <c r="K20">
-        <v>-0.2723932534812042</v>
+        <v>0.3740479670424225</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="B21">
-        <v>-1.022310226695567</v>
+        <v>0.9226943867804454</v>
       </c>
       <c r="C21">
-        <v>-0.5638009311781736</v>
+        <v>0.8046313848102262</v>
       </c>
       <c r="D21">
-        <v>-1.11018728185588</v>
+        <v>0.7239627057377708</v>
       </c>
       <c r="E21">
-        <v>-1.317910306098993</v>
+        <v>1.334946072869113</v>
       </c>
       <c r="F21">
-        <v>-1.233904665695198</v>
+        <v>1.337218803037286</v>
       </c>
       <c r="G21">
-        <v>-0.6898364593022301</v>
+        <v>1.334477811281217</v>
       </c>
       <c r="H21">
-        <v>-1.307522043193523</v>
+        <v>1.091345645781513</v>
       </c>
       <c r="I21">
-        <v>-0.4423389614688316</v>
+        <v>0.6143905263051634</v>
       </c>
       <c r="J21">
-        <v>-0.6608819501729383</v>
+        <v>1.378861439652221</v>
       </c>
       <c r="K21">
-        <v>-0.8649299722092419</v>
+        <v>0.7837374153978142</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B22">
-        <v>1.453536012930182</v>
+        <v>-0.0002958709469972816</v>
       </c>
       <c r="C22">
-        <v>0.3863080454368967</v>
+        <v>-0.01556822434968864</v>
       </c>
       <c r="D22">
-        <v>-0.2970664266563192</v>
+        <v>0.1684303032473721</v>
       </c>
       <c r="E22">
-        <v>-0.1348479940608704</v>
+        <v>0.05044996273285227</v>
       </c>
       <c r="F22">
-        <v>1.197300461653298</v>
+        <v>-0.9014365912721787</v>
       </c>
       <c r="G22">
-        <v>1.093125466278918</v>
+        <v>-0.0175506612674853</v>
       </c>
       <c r="H22">
-        <v>1.406856354194112</v>
+        <v>-0.6140507601651244</v>
       </c>
       <c r="I22">
-        <v>0.4054198749811834</v>
+        <v>0.3453427244450517</v>
       </c>
       <c r="J22">
-        <v>-0.06337918307953551</v>
+        <v>-0.6075660966989176</v>
       </c>
       <c r="K22">
-        <v>1.603973022490915</v>
+        <v>1.193426863753206</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="B23">
-        <v>-0.7868262595051788</v>
+        <v>-0.5916900345662476</v>
       </c>
       <c r="C23">
-        <v>-0.4846251831269178</v>
+        <v>-0.6120770310114449</v>
       </c>
       <c r="D23">
-        <v>-0.6927800441913733</v>
+        <v>-1.050809781112837</v>
       </c>
       <c r="E23">
-        <v>-0.7349479115290842</v>
+        <v>-0.5476672159261282</v>
       </c>
       <c r="F23">
-        <v>-2.114695551831738</v>
+        <v>-0.7415326345357883</v>
       </c>
       <c r="G23">
-        <v>-0.6898364593022301</v>
+        <v>-0.667744228739942</v>
       </c>
       <c r="H23">
-        <v>-2.025189657073921</v>
+        <v>-0.4757753758991808</v>
       </c>
       <c r="I23">
-        <v>-0.3481435351966077</v>
+        <v>-1.599581144423227</v>
       </c>
       <c r="J23">
-        <v>-0.580960719535746</v>
+        <v>0.4358227599506043</v>
       </c>
       <c r="K23">
-        <v>-1.358710571149273</v>
+        <v>-1.059865102201448</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B24">
-        <v>-0.5831079432725883</v>
+        <v>-0.8807618638951124</v>
       </c>
       <c r="C24">
-        <v>-0.08874644287063847</v>
+        <v>-0.6120770310114449</v>
       </c>
       <c r="D24">
-        <v>-0.161021850603917</v>
+        <v>-0.2893953952874289</v>
       </c>
       <c r="E24">
-        <v>-0.1702622732815822</v>
+        <v>-0.7282701062982422</v>
       </c>
       <c r="F24">
-        <v>-1.041492145616474</v>
+        <v>-0.8481352723600485</v>
       </c>
       <c r="G24">
-        <v>-0.1883784177325322</v>
+        <v>-0.7938741982958332</v>
       </c>
       <c r="H24">
-        <v>-0.8529992210692721</v>
+        <v>-1.07496870771827</v>
       </c>
       <c r="I24">
-        <v>0.2170290224367356</v>
+        <v>-1.252736387808384</v>
       </c>
       <c r="J24">
-        <v>0.09679104308125992</v>
+        <v>-0.2154128453934614</v>
       </c>
       <c r="K24">
-        <v>-0.5686616128452231</v>
+        <v>-0.7525980159349046</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="B25">
-        <v>0.2921329625499812</v>
+        <v>-0.7040781382585021</v>
       </c>
       <c r="C25">
-        <v>0.0696050532318733</v>
+        <v>-0.5375134301787254</v>
       </c>
       <c r="D25">
-        <v>0.2302928650348862</v>
+        <v>-1.517010339986689</v>
       </c>
       <c r="E25">
-        <v>-0.1642431507351159</v>
+        <v>-0.5008280609749115</v>
       </c>
       <c r="F25">
-        <v>0.733982227384313</v>
+        <v>-0.7415326345357883</v>
       </c>
       <c r="G25">
-        <v>0.4802323043603986</v>
+        <v>-0.4923898022802933</v>
       </c>
       <c r="H25">
-        <v>-0.4303727373397049</v>
+        <v>-0.5679589654098099</v>
       </c>
       <c r="I25">
-        <v>1.441569563975646</v>
+        <v>-1.547716507920073</v>
       </c>
       <c r="J25">
-        <v>0.3840925643903116</v>
+        <v>-0.6182199453131784</v>
       </c>
       <c r="K25">
-        <v>-0.5686616128452231</v>
+        <v>-0.9574427401126006</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>359</v>
+        <v>102</v>
       </c>
       <c r="B26">
-        <v>-0.5528940186386045</v>
+        <v>-1.039722849482842</v>
       </c>
       <c r="C26">
-        <v>-0.1679221909218943</v>
+        <v>-0.6120770310114449</v>
       </c>
       <c r="D26">
-        <v>-0.2235260172600043</v>
+        <v>-1.288097490719289</v>
       </c>
       <c r="E26">
-        <v>-0.1511156280864231</v>
+        <v>-1.117435676797838</v>
       </c>
       <c r="F26">
-        <v>-1.338793801189376</v>
+        <v>-0.7415326345357883</v>
       </c>
       <c r="G26">
-        <v>-0.7455540194766411</v>
+        <v>-1.344569824065823</v>
       </c>
       <c r="H26">
-        <v>-1.258082718681763</v>
+        <v>-0.5218671706544954</v>
       </c>
       <c r="I26">
-        <v>-0.4894366746049436</v>
+        <v>-1.418054916662187</v>
       </c>
       <c r="J26">
-        <v>-0.6133208844419639</v>
+        <v>-0.7295700738845197</v>
       </c>
       <c r="K26">
-        <v>-0.2723932534812042</v>
+        <v>-0.9574427401126006</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="B27">
-        <v>-0.7256934635207314</v>
+        <v>-0.5225845821491349</v>
       </c>
       <c r="C27">
-        <v>-1.038855419485709</v>
+        <v>-0.09013182518240824</v>
       </c>
       <c r="D27">
-        <v>-0.8761735280478767</v>
+        <v>-0.3012597807677515</v>
       </c>
       <c r="E27">
-        <v>-0.9531139822176952</v>
+        <v>0.1796669138194669</v>
       </c>
       <c r="F27">
-        <v>-0.6469422849496324</v>
+        <v>0.004685830234033282</v>
       </c>
       <c r="G27">
-        <v>-0.9127066999998739</v>
+        <v>0.1940715326655874</v>
       </c>
       <c r="H27">
-        <v>-0.3538215251924625</v>
+        <v>0.1234179559199082</v>
       </c>
       <c r="I27">
-        <v>-0.913316092829951</v>
+        <v>-0.1327843933184001</v>
       </c>
       <c r="J27">
-        <v>-0.7295236089208714</v>
+        <v>0.3275088035782117</v>
       </c>
       <c r="K27">
-        <v>-0.9636860919972482</v>
+        <v>-0.4453309296683608</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>0.6656320947271596</v>
+        <v>2.013065239427655</v>
       </c>
       <c r="C28">
-        <v>1.098889777898199</v>
+        <v>2.295903401464617</v>
       </c>
       <c r="D28">
-        <v>0.180037436247912</v>
+        <v>1.925057259363369</v>
       </c>
       <c r="E28">
-        <v>0.3033613900422082</v>
+        <v>1.303504179871703</v>
       </c>
       <c r="F28">
-        <v>0.4207040809745498</v>
+        <v>1.710328035422197</v>
       </c>
       <c r="G28">
-        <v>0.5916674247092205</v>
+        <v>1.323254097954636</v>
       </c>
       <c r="H28">
-        <v>0.8008259246951098</v>
+        <v>1.183529235292143</v>
       </c>
       <c r="I28">
-        <v>1.064787858886751</v>
+        <v>1.909385668993292</v>
       </c>
       <c r="J28">
-        <v>0.815926507035437</v>
+        <v>0.2285223910902113</v>
       </c>
       <c r="K28">
-        <v>0.7151679443988588</v>
+        <v>3.037029381352469</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>175</v>
+        <v>367</v>
       </c>
       <c r="B29">
-        <v>-0.4805499288629368</v>
+        <v>-0.5891946145517821</v>
       </c>
       <c r="C29">
-        <v>-0.7221524272806854</v>
+        <v>-1.059458636007762</v>
       </c>
       <c r="D29">
-        <v>-0.2059058649895972</v>
+        <v>0.9417090745531029</v>
       </c>
       <c r="E29">
-        <v>-0.508210570503418</v>
+        <v>-0.6648361309883893</v>
       </c>
       <c r="F29">
-        <v>0.1067313045284012</v>
+        <v>-1.114641866920699</v>
       </c>
       <c r="G29">
-        <v>-0.9127066999998739</v>
+        <v>-0.7895694490314193</v>
       </c>
       <c r="H29">
-        <v>-0.009341070529871888</v>
+        <v>-1.720253834292673</v>
       </c>
       <c r="I29">
-        <v>-1.478488650463294</v>
+        <v>-1.247874078136213</v>
       </c>
       <c r="J29">
-        <v>-0.6059667749916233</v>
+        <v>-0.3290826533958635</v>
       </c>
       <c r="K29">
-        <v>0.6164118246108524</v>
+        <v>-1.367132188467992</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>155</v>
+        <v>355</v>
       </c>
       <c r="B30">
-        <v>0.132431358130761</v>
+        <v>-1.131161964856436</v>
       </c>
       <c r="C30">
-        <v>0.227956549334385</v>
+        <v>-0.5375134301787254</v>
       </c>
       <c r="D30">
-        <v>0.1362846458459616</v>
+        <v>0.07072359929177433</v>
       </c>
       <c r="E30">
-        <v>0.2812162002296895</v>
+        <v>-0.9651606197997393</v>
       </c>
       <c r="F30">
-        <v>0.00531531921614971</v>
+        <v>-0.8481352723600485</v>
       </c>
       <c r="G30">
-        <v>-0.5226837787789975</v>
+        <v>-1.025284132485705</v>
       </c>
       <c r="H30">
-        <v>0.3160015810959081</v>
+        <v>-0.5218671706544954</v>
       </c>
       <c r="I30">
-        <v>-0.7249252402855032</v>
+        <v>-1.142524035239181</v>
       </c>
       <c r="J30">
-        <v>-0.535217990733563</v>
+        <v>-0.6038967274045191</v>
       </c>
       <c r="K30">
-        <v>1.20894854333889</v>
+        <v>-0.8550203780237526</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="B31">
-        <v>-1.373844662234122</v>
+        <v>-0.6805769971477684</v>
       </c>
       <c r="C31">
-        <v>-1.038855419485709</v>
+        <v>-0.8357678335096036</v>
       </c>
       <c r="D31">
-        <v>-1.511348692545232</v>
+        <v>-1.496771094167316</v>
       </c>
       <c r="E31">
-        <v>-1.708722452722607</v>
+        <v>-0.3243569393605032</v>
       </c>
       <c r="F31">
-        <v>-0.4732847758533112</v>
+        <v>-1.114641866920699</v>
       </c>
       <c r="G31">
-        <v>-0.801271579651052</v>
+        <v>-0.3010090448701958</v>
       </c>
       <c r="H31">
-        <v>-0.2980029330017649</v>
+        <v>-2.780365113664907</v>
       </c>
       <c r="I31">
-        <v>-0.2539481089243839</v>
+        <v>-2.037189014918589</v>
       </c>
       <c r="J31">
-        <v>-0.4034595085481893</v>
+        <v>-0.08384260558930756</v>
       </c>
       <c r="K31">
-        <v>-1.45746669093728</v>
+        <v>-1.46955455055684</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>-0.02089278596805476</v>
+        <v>0.4631548341552121</v>
       </c>
       <c r="C32">
-        <v>0.8613625337444321</v>
+        <v>-0.01556822434968864</v>
       </c>
       <c r="D32">
-        <v>0.3103673651667977</v>
+        <v>0.791659493478435</v>
       </c>
       <c r="E32">
-        <v>0.4584027136892748</v>
+        <v>0.5112600854053406</v>
       </c>
       <c r="F32">
-        <v>0.194254689112947</v>
+        <v>0.5910003382674645</v>
       </c>
       <c r="G32">
-        <v>0.5916674247092205</v>
+        <v>0.007105350091349228</v>
       </c>
       <c r="H32">
-        <v>0.639749415801954</v>
+        <v>-0.4296835811438663</v>
       </c>
       <c r="I32">
-        <v>1.111885572022862</v>
+        <v>0.5754920489277979</v>
       </c>
       <c r="J32">
-        <v>0.5799419637277156</v>
+        <v>-0.7228048759353861</v>
       </c>
       <c r="K32">
-        <v>0.122631225670821</v>
+        <v>1.603116312108598</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="B33">
-        <v>-0.7326036964327159</v>
+        <v>2.532655845171463</v>
       </c>
       <c r="C33">
-        <v>-0.5638009311781736</v>
+        <v>2.519594203962776</v>
       </c>
       <c r="D33">
-        <v>-0.8297426851485969</v>
+        <v>1.032436728226158</v>
       </c>
       <c r="E33">
-        <v>-0.8511051351740007</v>
+        <v>3.441654709665694</v>
       </c>
       <c r="F33">
-        <v>-1.821561676477148</v>
+        <v>3.09616232713758</v>
       </c>
       <c r="G33">
-        <v>-0.8569891398254629</v>
+        <v>3.134557802662739</v>
       </c>
       <c r="H33">
-        <v>-1.814673823669004</v>
+        <v>2.566283077951578</v>
       </c>
       <c r="I33">
-        <v>-1.243000084782735</v>
+        <v>0.6387020746660169</v>
       </c>
       <c r="J33">
-        <v>-1.371381380968392</v>
+        <v>3.504634519550959</v>
       </c>
       <c r="K33">
-        <v>-1.062442211785255</v>
+        <v>1.193426863753206</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="B34">
-        <v>-0.4782739184362217</v>
+        <v>-0.1805769629229988</v>
       </c>
       <c r="C34">
-        <v>-0.4054494350756618</v>
+        <v>-0.09013182518240824</v>
       </c>
       <c r="D34">
-        <v>-0.2460734233574816</v>
+        <v>-1.343231987951376</v>
       </c>
       <c r="E34">
-        <v>-0.2626503760045195</v>
+        <v>-0.4674856827004106</v>
       </c>
       <c r="F34">
-        <v>1.02016980237505</v>
+        <v>-0.3684234021508775</v>
       </c>
       <c r="G34">
-        <v>-0.1883784177325322</v>
+        <v>-0.4739389259137933</v>
       </c>
       <c r="H34">
-        <v>0.2330711012697289</v>
+        <v>0.0312343664092791</v>
       </c>
       <c r="I34">
-        <v>0.07573588302839977</v>
+        <v>-1.231666379228977</v>
       </c>
       <c r="J34">
-        <v>-0.3859931266248807</v>
+        <v>-1.069100667880905</v>
       </c>
       <c r="K34">
-        <v>-0.4699054930572168</v>
+        <v>-0.342908567579513</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>372</v>
+        <v>99</v>
       </c>
       <c r="B35">
-        <v>-0.1161662752278197</v>
+        <v>-0.4475460798867809</v>
       </c>
       <c r="C35">
-        <v>-0.3262736870244061</v>
+        <v>-0.8357678335096036</v>
       </c>
       <c r="D35">
-        <v>-0.2391542544298265</v>
+        <v>-1.30135768625612</v>
       </c>
       <c r="E35">
-        <v>-0.1953117476142835</v>
+        <v>-0.5470060015939304</v>
       </c>
       <c r="F35">
-        <v>-1.178334262784375</v>
+        <v>-1.167943185832829</v>
       </c>
       <c r="G35">
-        <v>-0.6341188991278193</v>
+        <v>-0.5700163382204737</v>
       </c>
       <c r="H35">
-        <v>-1.03002389915977</v>
+        <v>-2.734273318909593</v>
       </c>
       <c r="I35">
-        <v>0.8292992932061908</v>
+        <v>-1.914010503223598</v>
       </c>
       <c r="J35">
-        <v>1.016071681486685</v>
+        <v>-0.2123289553300349</v>
       </c>
       <c r="K35">
-        <v>-0.8649299722092419</v>
+        <v>-1.367132188467992</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="B36">
-        <v>-0.01256765114386626</v>
+        <v>-0.2914817444727619</v>
       </c>
       <c r="C36">
-        <v>-0.7221524272806854</v>
+        <v>-0.3883862285132863</v>
       </c>
       <c r="D36">
-        <v>0.2836373352542006</v>
+        <v>0.7672328174895355</v>
       </c>
       <c r="E36">
-        <v>0.4266044977832872</v>
+        <v>-0.08395515797787298</v>
       </c>
       <c r="F36">
-        <v>-0.6420798746949353</v>
+        <v>0.5910003382674645</v>
       </c>
       <c r="G36">
-        <v>-0.07694329738371039</v>
+        <v>-0.01055270125206653</v>
       </c>
       <c r="H36">
-        <v>-0.3745541451490073</v>
+        <v>0.1695097506752227</v>
       </c>
       <c r="I36">
-        <v>-1.243000084782735</v>
+        <v>1.043894547346908</v>
       </c>
       <c r="J36">
-        <v>-0.899468855595455</v>
+        <v>0.1039739860480826</v>
       </c>
       <c r="K36">
-        <v>0.02387510588281462</v>
+        <v>-0.7525980159349046</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B37">
-        <v>3.009342237471126</v>
+        <v>1.462922778134049</v>
       </c>
       <c r="C37">
-        <v>3.94921670774341</v>
+        <v>0.8046313848102262</v>
       </c>
       <c r="D37">
-        <v>3.461150916367083</v>
+        <v>0.7246606107660251</v>
       </c>
       <c r="E37">
-        <v>3.074348856851732</v>
+        <v>0.8877743634583763</v>
       </c>
       <c r="F37">
-        <v>1.566149010973884</v>
+        <v>2.403245181279889</v>
       </c>
       <c r="G37">
-        <v>3.600415674127409</v>
+        <v>1.16350267453959</v>
       </c>
       <c r="H37">
-        <v>1.071944801049926</v>
+        <v>1.46008000382403</v>
       </c>
       <c r="I37">
-        <v>3.419673515692347</v>
+        <v>1.10386303330368</v>
       </c>
       <c r="J37">
-        <v>3.47803746765583</v>
+        <v>1.463121992499975</v>
       </c>
       <c r="K37">
-        <v>2.492778100582972</v>
+        <v>-0.8550203780237526</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="B38">
-        <v>-0.5120636588729013</v>
+        <v>1.65318114805596</v>
       </c>
       <c r="C38">
-        <v>-0.4846251831269178</v>
+        <v>0.5063769814793481</v>
       </c>
       <c r="D38">
-        <v>-0.474680149017953</v>
+        <v>1.592156560886082</v>
       </c>
       <c r="E38">
-        <v>-0.4754948701941282</v>
+        <v>0.8014396943225299</v>
       </c>
       <c r="F38">
-        <v>-0.419103633015259</v>
+        <v>0.6976029760917248</v>
       </c>
       <c r="G38">
-        <v>-0.1883784177325322</v>
+        <v>0.9900033965341619</v>
       </c>
       <c r="H38">
-        <v>-0.1034352687941906</v>
+        <v>0.2156015454305372</v>
       </c>
       <c r="I38">
-        <v>-0.2539481089243839</v>
+        <v>1.359944676038003</v>
       </c>
       <c r="J38">
-        <v>-0.1654996492578814</v>
+        <v>0.3225797586021293</v>
       </c>
       <c r="K38">
-        <v>-0.4699054930572168</v>
+        <v>1.295849225842054</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>22</v>
+        <v>387</v>
       </c>
       <c r="B39">
-        <v>0.4511778018875568</v>
+        <v>-1.059593972171852</v>
       </c>
       <c r="C39">
-        <v>0.9405382817956875</v>
+        <v>-1.134022236840482</v>
       </c>
       <c r="D39">
-        <v>0.2091342220423667</v>
+        <v>-1.193182406876708</v>
       </c>
       <c r="E39">
-        <v>0.3379751140031496</v>
+        <v>-1.04782108004914</v>
       </c>
       <c r="F39">
-        <v>1.452229685006697</v>
+        <v>-1.061340548008569</v>
       </c>
       <c r="G39">
-        <v>0.4245147441859877</v>
+        <v>-1.175107181059948</v>
       </c>
       <c r="H39">
-        <v>1.816724302565805</v>
+        <v>-2.042896397579875</v>
       </c>
       <c r="I39">
-        <v>0.735103866933967</v>
+        <v>-1.085797089063856</v>
       </c>
       <c r="J39">
-        <v>0.8093190043288713</v>
+        <v>-1.786871896540581</v>
       </c>
       <c r="K39">
-        <v>0.8139240641868647</v>
+        <v>-1.264709826379144</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="B40">
-        <v>-0.261638875024462</v>
+        <v>-0.8801003395853852</v>
       </c>
       <c r="C40">
-        <v>-0.3262736870244061</v>
+        <v>-0.5375134301787254</v>
       </c>
       <c r="D40">
-        <v>-0.04752455797746471</v>
+        <v>-1.179922211339877</v>
       </c>
       <c r="E40">
-        <v>0.03265217467520751</v>
+        <v>-0.9663577468790765</v>
       </c>
       <c r="F40">
-        <v>0.8117807914594648</v>
+        <v>-0.4217247210630076</v>
       </c>
       <c r="G40">
-        <v>0.7031025450580421</v>
+        <v>-1.076682195373749</v>
       </c>
       <c r="H40">
-        <v>1.11500485788275</v>
+        <v>0.1234179559199082</v>
       </c>
       <c r="I40">
-        <v>0.2641267355728475</v>
+        <v>-1.046898611686491</v>
       </c>
       <c r="J40">
-        <v>0.1962345978508022</v>
+        <v>0.3230265245328893</v>
       </c>
       <c r="K40">
-        <v>-0.6674177326332293</v>
+        <v>-1.059865102201448</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="B41">
-        <v>0.2566980994129456</v>
+        <v>-0.6193045282535983</v>
       </c>
       <c r="C41">
-        <v>0.227956549334385</v>
+        <v>-0.6120770310114449</v>
       </c>
       <c r="D41">
-        <v>0.3416004819039739</v>
+        <v>-0.03605587003112894</v>
       </c>
       <c r="E41">
-        <v>0.4955578307120804</v>
+        <v>-0.8023362011559603</v>
       </c>
       <c r="F41">
-        <v>-0.8817272372478584</v>
+        <v>-0.5283273588872679</v>
       </c>
       <c r="G41">
-        <v>-0.4112486584301757</v>
+        <v>-0.8785093774714419</v>
       </c>
       <c r="H41">
-        <v>-0.6137766831091397</v>
+        <v>-0.7062343496757535</v>
       </c>
       <c r="I41">
-        <v>0.9234947194784147</v>
+        <v>-0.5477014853436328</v>
       </c>
       <c r="J41">
-        <v>0.6579979675192444</v>
+        <v>-0.9105086067623076</v>
       </c>
       <c r="K41">
-        <v>-0.4699054930572168</v>
+        <v>-0.6501756538460567</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>0.2796222307752703</v>
+        <v>0.3436701292287813</v>
       </c>
       <c r="C42">
-        <v>0.227956549334385</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D42">
-        <v>-0.5355834783468368</v>
+        <v>0.5432053034199149</v>
       </c>
       <c r="E42">
-        <v>-0.5479458633926297</v>
+        <v>0.1275730638638893</v>
       </c>
       <c r="F42">
-        <v>0.3588820077362594</v>
+        <v>0.9108082517402452</v>
       </c>
       <c r="G42">
-        <v>0.03449182296511151</v>
+        <v>0.1921759982763918</v>
       </c>
       <c r="H42">
-        <v>-0.224641354693991</v>
+        <v>0.0312343664092791</v>
       </c>
       <c r="I42">
-        <v>0.735103866933967</v>
+        <v>0.8931629475096167</v>
       </c>
       <c r="J42">
-        <v>0.1937617425901794</v>
+        <v>-0.8132827973196884</v>
       </c>
       <c r="K42">
-        <v>-0.3711493732692104</v>
+        <v>1.193426863753206</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="B43">
-        <v>-0.5524530600780633</v>
+        <v>1.328044522319128</v>
       </c>
       <c r="C43">
-        <v>-0.6429766792294295</v>
+        <v>0.8046313848102262</v>
       </c>
       <c r="D43">
-        <v>-0.6480778217750125</v>
+        <v>1.098039800882059</v>
       </c>
       <c r="E43">
-        <v>-0.6817698595582923</v>
+        <v>1.021724096220534</v>
       </c>
       <c r="F43">
-        <v>-0.6941771274238316</v>
+        <v>1.497122759773676</v>
       </c>
       <c r="G43">
-        <v>-0.5226837787789975</v>
+        <v>0.7610491130983795</v>
       </c>
       <c r="H43">
-        <v>-0.5085187664066815</v>
+        <v>0.5843359034730535</v>
       </c>
       <c r="I43">
-        <v>-0.5365343877410554</v>
+        <v>1.134657661227428</v>
       </c>
       <c r="J43">
-        <v>-0.3589212368233554</v>
+        <v>0.144124178723801</v>
       </c>
       <c r="K43">
-        <v>-0.9636860919972482</v>
+        <v>2.012805760463989</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="B44">
-        <v>-0.6877464434084983</v>
+        <v>0.08705049418841732</v>
       </c>
       <c r="C44">
-        <v>-0.1679221909218943</v>
+        <v>-0.2392590268478473</v>
       </c>
       <c r="D44">
-        <v>-0.4799128392214452</v>
+        <v>0.9033242979991181</v>
       </c>
       <c r="E44">
-        <v>-0.4459050672237025</v>
+        <v>-0.05006253991407981</v>
       </c>
       <c r="F44">
-        <v>-0.1593119994071627</v>
+        <v>-0.2085194454144871</v>
       </c>
       <c r="G44">
-        <v>0.03449182296511151</v>
+        <v>-0.1495644679277224</v>
       </c>
       <c r="H44">
-        <v>0.1836317767579682</v>
+        <v>0.4460605192071099</v>
       </c>
       <c r="I44">
-        <v>-0.06555725637993601</v>
+        <v>-0.3937283457248941</v>
       </c>
       <c r="J44">
-        <v>-0.2407326042593452</v>
+        <v>0.8421233078474748</v>
       </c>
       <c r="K44">
-        <v>0.8139240641868647</v>
+        <v>-0.9574427401126006</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>310</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>-0.1453883355875378</v>
+        <v>0.1285250240752332</v>
       </c>
       <c r="C45">
-        <v>0.3071322973856409</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D45">
-        <v>-0.1564493364128937</v>
+        <v>-0.445028216588131</v>
       </c>
       <c r="E45">
-        <v>-0.1387307714300075</v>
+        <v>-0.2506208342004399</v>
       </c>
       <c r="F45">
-        <v>-0.6212409736033768</v>
+        <v>0.9108082517402452</v>
       </c>
       <c r="G45">
-        <v>0.2016445034883441</v>
+        <v>-0.2119201896451766</v>
       </c>
       <c r="H45">
-        <v>-0.5467943724803026</v>
+        <v>0.4460605192071099</v>
       </c>
       <c r="I45">
-        <v>-0.3010458220604957</v>
+        <v>-0.1797867201493835</v>
       </c>
       <c r="J45">
-        <v>-0.9084018444168603</v>
+        <v>-0.3676682639348719</v>
       </c>
       <c r="K45">
-        <v>1.011436303762878</v>
+        <v>-0.8550203780237526</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="B46">
-        <v>-0.8377763180569598</v>
+        <v>-0.4042377305646588</v>
       </c>
       <c r="C46">
-        <v>-0.5638009311781736</v>
+        <v>0.1335589773157504</v>
       </c>
       <c r="D46">
-        <v>-0.6692144266703407</v>
+        <v>-0.8414382726365562</v>
       </c>
       <c r="E46">
-        <v>-0.7069141010042942</v>
+        <v>0.222019358594446</v>
       </c>
       <c r="F46">
-        <v>-1.758350343166087</v>
+        <v>-0.4217247210630076</v>
       </c>
       <c r="G46">
-        <v>-0.801271579651052</v>
+        <v>0.17242368765011</v>
       </c>
       <c r="H46">
-        <v>-1.634459511739038</v>
+        <v>-0.153132812611979</v>
       </c>
       <c r="I46">
-        <v>-1.525586363599406</v>
+        <v>-0.9707224268224833</v>
       </c>
       <c r="J46">
-        <v>-0.658812001821527</v>
+        <v>-0.06636051084406734</v>
       </c>
       <c r="K46">
-        <v>-1.161198331573261</v>
+        <v>0.1692032428647267</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="B47">
-        <v>-0.4734428909274229</v>
+        <v>-0.6618215144116341</v>
       </c>
       <c r="C47">
-        <v>-0.5638009311781736</v>
+        <v>-0.2392590268478473</v>
       </c>
       <c r="D47">
-        <v>-0.2784026287511073</v>
+        <v>0.406415917882078</v>
       </c>
       <c r="E47">
-        <v>-0.2285310066087271</v>
+        <v>-0.5836097591726039</v>
       </c>
       <c r="F47">
-        <v>-1.206814094276172</v>
+        <v>-0.1552181265023571</v>
       </c>
       <c r="G47">
-        <v>-0.6341188991278193</v>
+        <v>-0.6142414414116352</v>
       </c>
       <c r="H47">
-        <v>-1.146445534300368</v>
+        <v>0.1234179559199082</v>
       </c>
       <c r="I47">
-        <v>-0.4894366746049436</v>
+        <v>-0.1587167115699771</v>
       </c>
       <c r="J47">
-        <v>0.185269563149566</v>
+        <v>-0.4144163204007693</v>
       </c>
       <c r="K47">
-        <v>-0.7661738524212357</v>
+        <v>-0.5477532917572089</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B48">
-        <v>-0.8600359683745182</v>
+        <v>-1.101429940034392</v>
       </c>
       <c r="C48">
-        <v>-0.4846251831269178</v>
+        <v>-0.6120770310114449</v>
       </c>
       <c r="D48">
-        <v>-0.9548433913791685</v>
+        <v>-0.8428340826930647</v>
       </c>
       <c r="E48">
-        <v>-1.046700158801958</v>
+        <v>-1.595784119565262</v>
       </c>
       <c r="F48">
-        <v>-1.126237010055479</v>
+        <v>-0.4750260399751377</v>
       </c>
       <c r="G48">
-        <v>-0.3555310982557648</v>
+        <v>-1.837162761431904</v>
       </c>
       <c r="H48">
-        <v>-0.9423089685743882</v>
+        <v>-0.2453164021226081</v>
       </c>
       <c r="I48">
-        <v>0.2170290224367356</v>
+        <v>-0.6627761475850059</v>
       </c>
       <c r="J48">
-        <v>0.4214819058780662</v>
+        <v>-1.142526671094307</v>
       </c>
       <c r="K48">
-        <v>-0.9636860919972482</v>
+        <v>-0.8550203780237526</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="B49">
-        <v>-0.4410890412928689</v>
+        <v>0.4842813694406256</v>
       </c>
       <c r="C49">
-        <v>-0.08874644287063847</v>
+        <v>0.05899537648303088</v>
       </c>
       <c r="D49">
-        <v>-0.6665293161565853</v>
+        <v>-0.3654670433671443</v>
       </c>
       <c r="E49">
-        <v>-0.5965226620967328</v>
+        <v>0.3373999507501015</v>
       </c>
       <c r="F49">
-        <v>0.9159752969172575</v>
+        <v>0.3244937437068139</v>
       </c>
       <c r="G49">
-        <v>-0.6341188991278193</v>
+        <v>0.5055389829067394</v>
       </c>
       <c r="H49">
-        <v>1.263322831418032</v>
+        <v>-0.4757753758991808</v>
       </c>
       <c r="I49">
-        <v>-0.2539481089243839</v>
+        <v>-0.1992359588380663</v>
       </c>
       <c r="J49">
-        <v>0.06642338036796035</v>
+        <v>-0.6450169068037456</v>
       </c>
       <c r="K49">
-        <v>0.7151679443988588</v>
+        <v>1.50069395001975</v>
       </c>
     </row>
   </sheetData>
